--- a/Results/Correlation_Matrix_futures.xlsx
+++ b/Results/Correlation_Matrix_futures.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +72,417 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1F1F1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB40426"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C8FF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FBFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6788EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF688AEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C66D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97B8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B4CC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF779AF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F69D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EA1FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A8BEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6282EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1CCB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5572DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4055C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5875E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E51C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6180E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CDFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BFA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE8669"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A78E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F53C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81A4FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF799CF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A63D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E90F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0D4F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D7CE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5977E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C4EC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D5F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B7AE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D50C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF485FD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF445ACC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B64D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F92F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6687ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F7FE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84A7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF516DDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DAE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C0A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CAFFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A283"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4358CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5CDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED8366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7295F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF506BDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59C7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2C9B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7093F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4E68D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7396F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7597F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E7DE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -108,11 +512,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,37 +924,37 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.1481661132303877</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.04386709706565765</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.2563611825665137</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>0.0119055848085978</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>0.0418983073855627</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>-0.01669941466617118</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="9">
         <v>0.1843750890541429</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <v>0.4300173975346125</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="11">
         <v>0.3334792696663225</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="12">
         <v>-0.04968719953018246</v>
       </c>
     </row>
@@ -493,37 +962,37 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>0.1481661132303877</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>-0.05774828685384242</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <v>-0.06442070736266926</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="15">
         <v>0.09186930466542144</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.05251244536401202</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>-0.08178776903262287</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>0.03702143104013566</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="16">
         <v>0.02393073291000429</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="17">
         <v>0.0496477443093427</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="18">
         <v>0.5769002845031007</v>
       </c>
     </row>
@@ -531,37 +1000,37 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="19">
         <v>0.04386709706565765</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="20">
         <v>-0.05774828685384242</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="21">
         <v>0.03709867105317973</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="22">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>-0.120637533798772</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="23">
         <v>0.05088324746232848</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="24">
         <v>0.276523776784399</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="25">
         <v>0.5902957903072246</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="26">
         <v>0.7764656356952402</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="27">
         <v>0.05859965304941912</v>
       </c>
     </row>
@@ -569,37 +1038,37 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="28">
         <v>0.2563611825665137</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>-0.06442070736266926</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>0.03709867105317973</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="21">
         <v>-0.04017085610091697</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>-0.05763465623360163</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>-0.005869342154493565</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="30">
         <v>0.1117576521904835</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>0.199757859051242</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="31">
         <v>0.1190140961868089</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="32">
         <v>0.005657493276743172</v>
       </c>
     </row>
@@ -607,37 +1076,37 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>0.0119055848085978</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="33">
         <v>0.09186930466542144</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="20">
         <v>-0.04017085610091697</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="34">
         <v>0.3242020198360616</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="35">
         <v>0.0385142914547611</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="12">
         <v>-0.1336392130937704</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="12">
         <v>-0.1505793139290194</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="12">
         <v>-0.0906144249348499</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="36">
         <v>0.05527846011897398</v>
       </c>
     </row>
@@ -645,37 +1114,37 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>0.0418983073855627</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="23">
         <v>0.05251244536401202</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>-0.120637533798772</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="37">
         <v>-0.05763465623360163</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="38">
         <v>0.3242020198360616</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="39">
         <v>0.03279890886531711</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="40">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="41">
         <v>-0.09756570471393469</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="41">
         <v>-0.0408217039703215</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="23">
         <v>0.07891111091653219</v>
       </c>
     </row>
@@ -683,37 +1152,37 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="42">
         <v>-0.01669941466617118</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>-0.08178776903262287</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="33">
         <v>0.05088324746232848</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="43">
         <v>-0.005869342154493565</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="44">
         <v>0.0385142914547611</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="45">
         <v>0.03279890886531711</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="46">
         <v>0.002722770774937415</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="27">
         <v>-0.03173962734605825</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="32">
         <v>-0.03270094503062922</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="36">
         <v>0.05481929760525415</v>
       </c>
     </row>
@@ -721,37 +1190,37 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="47">
         <v>0.1843750890541429</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="35">
         <v>0.03702143104013566</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>0.276523776784399</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="44">
         <v>0.1117576521904835</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="22">
         <v>-0.1336392130937704</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="48">
         <v>0.002722770774937415</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="49">
         <v>0.4282257676753705</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <v>0.3342158452524269</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="36">
         <v>0.05551919914154215</v>
       </c>
     </row>
@@ -759,37 +1228,37 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="50">
         <v>0.4300173975346125</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="36">
         <v>0.02393073291000429</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="51">
         <v>0.5902957903072246</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="52">
         <v>0.199757859051242</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>-0.1505793139290194</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="20">
         <v>-0.09756570471393469</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="41">
         <v>-0.03173962734605825</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="53">
         <v>0.4282257676753705</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="54">
         <v>0.705073958871586</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="55">
         <v>-0.01961802067456925</v>
       </c>
     </row>
@@ -797,37 +1266,37 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="56">
         <v>0.3334792696663225</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="23">
         <v>0.0496477443093427</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="57">
         <v>0.7764656356952402</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="58">
         <v>0.1190140961868089</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="32">
         <v>-0.0906144249348499</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="59">
         <v>-0.0408217039703215</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="41">
         <v>-0.03270094503062922</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="38">
         <v>0.3342158452524269</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="60">
         <v>0.705073958871586</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>0.01413667568644</v>
       </c>
     </row>
@@ -835,37 +1304,37 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>-0.04968719953018246</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="61">
         <v>0.5769002845031007</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="62">
         <v>0.05859965304941912</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="63">
         <v>0.005657493276743172</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="64">
         <v>0.05527846011897398</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="65">
         <v>0.07891111091653219</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="17">
         <v>0.05481929760525415</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="44">
         <v>0.05551919914154215</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="66">
         <v>-0.01961802067456925</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="21">
         <v>0.01413667568644</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Results/Correlation_Matrix_futures.xlsx
+++ b/Results/Correlation_Matrix_futures.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_17B00487A2E6E9EF97FD9890E25CC233C02BD014" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04F3DEE-D6A2-4550-A59A-359B4FC652A0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6870" yWindow="2250" windowWidth="23790" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,17 +61,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +84,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="67">
+  <fills count="69">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +494,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5E7DE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,87 +537,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -634,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,9 +702,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,6 +754,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,466 +947,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.1481661132303877</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.04386709706565765</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.2563611825665137</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.0119055848085978</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0418983073855627</v>
-      </c>
-      <c r="H2" s="8">
-        <v>-0.01669941466617118</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="D2" s="3">
+        <v>4.3867097065657647E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.25636118256651369</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.19055848085978E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4.1898307385562703E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-1.669941466617118E-2</v>
+      </c>
+      <c r="I2" s="8">
         <v>0.1843750890541429</v>
       </c>
-      <c r="J2" s="10">
-        <v>0.4300173975346125</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0.3334792696663225</v>
-      </c>
-      <c r="L2" s="12">
-        <v>-0.04968719953018246</v>
+      <c r="J2" s="9">
+        <v>0.43001739753461249</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.33347926966632252</v>
+      </c>
+      <c r="L2" s="11">
+        <v>-4.9687199530182462E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0.1481661132303877</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <v>-0.05774828685384242</v>
-      </c>
-      <c r="E3" s="12">
-        <v>-0.06442070736266926</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.09186930466542144</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.05251244536401202</v>
-      </c>
-      <c r="H3" s="12">
-        <v>-0.08178776903262287</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.03702143104013566</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.02393073291000429</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0.0496477443093427</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0.5769002845031007</v>
+      <c r="D3" s="13">
+        <v>-5.7748286853842423E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-6.4420707362669263E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9.1869304665421439E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.251244536401202E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>-8.1787769032622873E-2</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3.7021431040135659E-2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2.393073291000429E-2</v>
+      </c>
+      <c r="K3" s="16">
+        <v>4.9647744309342698E-2</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.57690028450310071</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.04386709706565765</v>
-      </c>
-      <c r="C4" s="20">
-        <v>-0.05774828685384242</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="18">
+        <v>4.3867097065657647E-2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-5.7748286853842423E-2</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
-        <v>0.03709867105317973</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="E4" s="20">
+        <v>3.7098671053179731E-2</v>
+      </c>
+      <c r="F4" s="21">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>-0.120637533798772</v>
       </c>
-      <c r="H4" s="23">
-        <v>0.05088324746232848</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0.276523776784399</v>
-      </c>
-      <c r="J4" s="25">
-        <v>0.5902957903072246</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0.7764656356952402</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0.05859965304941912</v>
+      <c r="H4" s="22">
+        <v>5.0883247462328481E-2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.27652377678439899</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.59029579030722457</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.77646563569524019</v>
+      </c>
+      <c r="L4" s="26">
+        <v>5.8599653049419123E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
-        <v>0.2563611825665137</v>
-      </c>
-      <c r="C5" s="29">
-        <v>-0.06442070736266926</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.03709867105317973</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="27">
+        <v>0.25636118256651369</v>
+      </c>
+      <c r="C5" s="28">
+        <v>-6.4420707362669263E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.7098671053179731E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="21">
-        <v>-0.04017085610091697</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.05763465623360163</v>
-      </c>
-      <c r="H5" s="14">
-        <v>-0.005869342154493565</v>
-      </c>
-      <c r="I5" s="30">
+      <c r="F5" s="20">
+        <v>-4.0170856100916967E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>-5.763465623360163E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-5.8693421544935651E-3</v>
+      </c>
+      <c r="I5" s="29">
         <v>0.1117576521904835</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.199757859051242</v>
-      </c>
-      <c r="K5" s="31">
+      <c r="J5" s="4">
+        <v>0.19975785905124199</v>
+      </c>
+      <c r="K5" s="30">
         <v>0.1190140961868089</v>
       </c>
-      <c r="L5" s="32">
-        <v>0.005657493276743172</v>
+      <c r="L5" s="31">
+        <v>5.6574932767431722E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>0.0119055848085978</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0.09186930466542144</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="7">
+        <v>1.19055848085978E-2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>9.1869304665421439E-2</v>
+      </c>
+      <c r="D6" s="11">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="E6" s="20">
-        <v>-0.04017085610091697</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="19">
+        <v>-4.0170856100916967E-2</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="34">
-        <v>0.3242020198360616</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0.0385142914547611</v>
-      </c>
-      <c r="I6" s="12">
-        <v>-0.1336392130937704</v>
-      </c>
-      <c r="J6" s="12">
-        <v>-0.1505793139290194</v>
-      </c>
-      <c r="K6" s="12">
-        <v>-0.0906144249348499</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0.05527846011897398</v>
+      <c r="G6" s="33">
+        <v>0.32420201983606162</v>
+      </c>
+      <c r="H6" s="34">
+        <v>3.8514291454761103E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>-0.13363921309377039</v>
+      </c>
+      <c r="J6" s="11">
+        <v>-0.15057931392901941</v>
+      </c>
+      <c r="K6" s="11">
+        <v>-9.0614424934849905E-2</v>
+      </c>
+      <c r="L6" s="35">
+        <v>5.5278460118973978E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
-        <v>0.0418983073855627</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.05251244536401202</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="B7" s="18">
+        <v>4.1898307385562703E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5.251244536401202E-2</v>
+      </c>
+      <c r="D7" s="21">
         <v>-0.120637533798772</v>
       </c>
-      <c r="E7" s="37">
-        <v>-0.05763465623360163</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0.3242020198360616</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="36">
+        <v>-5.763465623360163E-2</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.32420201983606162</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="39">
-        <v>0.03279890886531711</v>
-      </c>
-      <c r="I7" s="40">
+      <c r="H7" s="38">
+        <v>3.2798908865317111E-2</v>
+      </c>
+      <c r="I7" s="39">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="J7" s="41">
-        <v>-0.09756570471393469</v>
-      </c>
-      <c r="K7" s="41">
-        <v>-0.0408217039703215</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0.07891111091653219</v>
+      <c r="J7" s="40">
+        <v>-9.7565704713934692E-2</v>
+      </c>
+      <c r="K7" s="40">
+        <v>-4.0821703970321498E-2</v>
+      </c>
+      <c r="L7" s="22">
+        <v>7.891111091653219E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="42">
-        <v>-0.01669941466617118</v>
-      </c>
-      <c r="C8" s="12">
-        <v>-0.08178776903262287</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.05088324746232848</v>
-      </c>
-      <c r="E8" s="43">
-        <v>-0.005869342154493565</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0.0385142914547611</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0.03279890886531711</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="B8" s="41">
+        <v>-1.669941466617118E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-8.1787769032622873E-2</v>
+      </c>
+      <c r="D8" s="32">
+        <v>5.0883247462328481E-2</v>
+      </c>
+      <c r="E8" s="42">
+        <v>-5.8693421544935651E-3</v>
+      </c>
+      <c r="F8" s="43">
+        <v>3.8514291454761103E-2</v>
+      </c>
+      <c r="G8" s="44">
+        <v>3.2798908865317111E-2</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="46">
-        <v>0.002722770774937415</v>
-      </c>
-      <c r="J8" s="27">
-        <v>-0.03173962734605825</v>
-      </c>
-      <c r="K8" s="32">
-        <v>-0.03270094503062922</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0.05481929760525415</v>
+      <c r="I8" s="45">
+        <v>2.7227707749374148E-3</v>
+      </c>
+      <c r="J8" s="26">
+        <v>-3.1739627346058251E-2</v>
+      </c>
+      <c r="K8" s="31">
+        <v>-3.2700945030629217E-2</v>
+      </c>
+      <c r="L8" s="35">
+        <v>5.4819297605254148E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>0.1843750890541429</v>
       </c>
-      <c r="C9" s="35">
-        <v>0.03702143104013566</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.276523776784399</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="C9" s="34">
+        <v>3.7021431040135659E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.27652377678439899</v>
+      </c>
+      <c r="E9" s="43">
         <v>0.1117576521904835</v>
       </c>
-      <c r="F9" s="22">
-        <v>-0.1336392130937704</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="21">
+        <v>-0.13363921309377039</v>
+      </c>
+      <c r="G9" s="11">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="H9" s="48">
-        <v>0.002722770774937415</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="47">
+        <v>2.7227707749374148E-3</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="49">
-        <v>0.4282257676753705</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.3342158452524269</v>
-      </c>
-      <c r="L9" s="36">
-        <v>0.05551919914154215</v>
+      <c r="J9" s="48">
+        <v>0.42822576767537052</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.33421584525242692</v>
+      </c>
+      <c r="L9" s="35">
+        <v>5.5519199141542151E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="50">
-        <v>0.4300173975346125</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.02393073291000429</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0.5902957903072246</v>
-      </c>
-      <c r="E10" s="52">
-        <v>0.199757859051242</v>
-      </c>
-      <c r="F10" s="12">
-        <v>-0.1505793139290194</v>
-      </c>
-      <c r="G10" s="20">
-        <v>-0.09756570471393469</v>
-      </c>
-      <c r="H10" s="41">
-        <v>-0.03173962734605825</v>
-      </c>
-      <c r="I10" s="53">
-        <v>0.4282257676753705</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="B10" s="49">
+        <v>0.43001739753461249</v>
+      </c>
+      <c r="C10" s="35">
+        <v>2.393073291000429E-2</v>
+      </c>
+      <c r="D10" s="50">
+        <v>0.59029579030722457</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0.19975785905124199</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-0.15057931392901941</v>
+      </c>
+      <c r="G10" s="19">
+        <v>-9.7565704713934692E-2</v>
+      </c>
+      <c r="H10" s="40">
+        <v>-3.1739627346058251E-2</v>
+      </c>
+      <c r="I10" s="52">
+        <v>0.42822576767537052</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="54">
-        <v>0.705073958871586</v>
-      </c>
-      <c r="L10" s="55">
-        <v>-0.01961802067456925</v>
+      <c r="K10" s="53">
+        <v>0.70507395887158597</v>
+      </c>
+      <c r="L10" s="54">
+        <v>-1.9618020674569251E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56">
-        <v>0.3334792696663225</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.0496477443093427</v>
-      </c>
-      <c r="D11" s="57">
-        <v>0.7764656356952402</v>
-      </c>
-      <c r="E11" s="58">
+      <c r="B11" s="55">
+        <v>0.33347926966632252</v>
+      </c>
+      <c r="C11" s="22">
+        <v>4.9647744309342698E-2</v>
+      </c>
+      <c r="D11" s="56">
+        <v>0.77646563569524019</v>
+      </c>
+      <c r="E11" s="57">
         <v>0.1190140961868089</v>
       </c>
-      <c r="F11" s="32">
-        <v>-0.0906144249348499</v>
-      </c>
-      <c r="G11" s="59">
-        <v>-0.0408217039703215</v>
-      </c>
-      <c r="H11" s="41">
-        <v>-0.03270094503062922</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0.3342158452524269</v>
-      </c>
-      <c r="J11" s="60">
-        <v>0.705073958871586</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="F11" s="31">
+        <v>-9.0614424934849905E-2</v>
+      </c>
+      <c r="G11" s="58">
+        <v>-4.0821703970321498E-2</v>
+      </c>
+      <c r="H11" s="40">
+        <v>-3.2700945030629217E-2</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.33421584525242692</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0.70507395887158597</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="8">
-        <v>0.01413667568644</v>
+      <c r="L11" s="7">
+        <v>1.413667568644E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
-        <v>-0.04968719953018246</v>
-      </c>
-      <c r="C12" s="61">
-        <v>0.5769002845031007</v>
-      </c>
-      <c r="D12" s="62">
-        <v>0.05859965304941912</v>
-      </c>
-      <c r="E12" s="63">
-        <v>0.005657493276743172</v>
-      </c>
-      <c r="F12" s="64">
-        <v>0.05527846011897398</v>
-      </c>
-      <c r="G12" s="65">
-        <v>0.07891111091653219</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0.05481929760525415</v>
-      </c>
-      <c r="I12" s="44">
-        <v>0.05551919914154215</v>
-      </c>
-      <c r="J12" s="66">
-        <v>-0.01961802067456925</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.01413667568644</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="B12" s="11">
+        <v>-4.9687199530182462E-2</v>
+      </c>
+      <c r="C12" s="60">
+        <v>0.57690028450310071</v>
+      </c>
+      <c r="D12" s="61">
+        <v>5.8599653049419123E-2</v>
+      </c>
+      <c r="E12" s="62">
+        <v>5.6574932767431722E-3</v>
+      </c>
+      <c r="F12" s="63">
+        <v>5.5278460118973978E-2</v>
+      </c>
+      <c r="G12" s="64">
+        <v>7.891111091653219E-2</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5.4819297605254148E-2</v>
+      </c>
+      <c r="I12" s="43">
+        <v>5.5519199141542151E-2</v>
+      </c>
+      <c r="J12" s="65">
+        <v>-1.9618020674569251E-2</v>
+      </c>
+      <c r="K12" s="20">
+        <v>1.413667568644E-2</v>
+      </c>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Results/Correlation_Matrix_futures.xlsx
+++ b/Results/Correlation_Matrix_futures.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_17B00487A2E6E9EF97FD9890E25CC233C02BD014" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04F3DEE-D6A2-4550-A59A-359B4FC652A0}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2250" windowWidth="23790" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,9 +55,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,23 +86,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="69">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,18 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5E7DE7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,98 +512,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,27 +666,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,24 +700,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,475 +875,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.1481661132303877</v>
       </c>
-      <c r="D2" s="3">
-        <v>4.3867097065657647E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.25636118256651369</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.19055848085978E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4.1898307385562703E-2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>-1.669941466617118E-2</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="D2" s="4">
+        <v>0.04386709706565765</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.2563611825665137</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.0119055848085978</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.0418983073855627</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-0.01669941466617118</v>
+      </c>
+      <c r="I2" s="9">
         <v>0.1843750890541429</v>
       </c>
-      <c r="J2" s="9">
-        <v>0.43001739753461249</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0.33347926966632252</v>
-      </c>
-      <c r="L2" s="11">
-        <v>-4.9687199530182462E-2</v>
+      <c r="J2" s="10">
+        <v>0.4300173975346125</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.3334792696663225</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-0.04968719953018246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>0.1481661132303877</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
-        <v>-5.7748286853842423E-2</v>
-      </c>
-      <c r="E3" s="11">
-        <v>-6.4420707362669263E-2</v>
-      </c>
-      <c r="F3" s="14">
-        <v>9.1869304665421439E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5.251244536401202E-2</v>
-      </c>
-      <c r="H3" s="11">
-        <v>-8.1787769032622873E-2</v>
-      </c>
-      <c r="I3" s="15">
-        <v>3.7021431040135659E-2</v>
-      </c>
-      <c r="J3" s="15">
-        <v>2.393073291000429E-2</v>
-      </c>
-      <c r="K3" s="16">
-        <v>4.9647744309342698E-2</v>
-      </c>
-      <c r="L3" s="17">
-        <v>0.57690028450310071</v>
+      <c r="D3" s="14">
+        <v>-0.05774828685384242</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-0.06442070736266926</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.09186930466542144</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.05251244536401202</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-0.08178776903262287</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.03702143104013566</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.02393073291000429</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.0496477443093427</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.5769002845031007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
-        <v>4.3867097065657647E-2</v>
-      </c>
-      <c r="C4" s="19">
-        <v>-5.7748286853842423E-2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="19">
+        <v>0.04386709706565765</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-0.05774828685384242</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
-        <v>3.7098671053179731E-2</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="21">
+        <v>0.03709867105317973</v>
+      </c>
+      <c r="F4" s="22">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>-0.120637533798772</v>
       </c>
-      <c r="H4" s="22">
-        <v>5.0883247462328481E-2</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.27652377678439899</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0.59029579030722457</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0.77646563569524019</v>
-      </c>
-      <c r="L4" s="26">
-        <v>5.8599653049419123E-2</v>
+      <c r="H4" s="23">
+        <v>0.05088324746232848</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.276523776784399</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.5902957903072246</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0.7764656356952402</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0.05859965304941912</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27">
-        <v>0.25636118256651369</v>
-      </c>
-      <c r="C5" s="28">
-        <v>-6.4420707362669263E-2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3.7098671053179731E-2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="28">
+        <v>0.2563611825665137</v>
+      </c>
+      <c r="C5" s="29">
+        <v>-0.06442070736266926</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.03709867105317973</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
-        <v>-4.0170856100916967E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>-5.763465623360163E-2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>-5.8693421544935651E-3</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="F5" s="21">
+        <v>-0.04017085610091697</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-0.05763465623360163</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-0.005869342154493565</v>
+      </c>
+      <c r="I5" s="30">
         <v>0.1117576521904835</v>
       </c>
-      <c r="J5" s="4">
-        <v>0.19975785905124199</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="J5" s="5">
+        <v>0.199757859051242</v>
+      </c>
+      <c r="K5" s="31">
         <v>0.1190140961868089</v>
       </c>
-      <c r="L5" s="31">
-        <v>5.6574932767431722E-3</v>
+      <c r="L5" s="32">
+        <v>0.005657493276743172</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>1.19055848085978E-2</v>
-      </c>
-      <c r="C6" s="32">
-        <v>9.1869304665421439E-2</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="8">
+        <v>0.0119055848085978</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.09186930466542144</v>
+      </c>
+      <c r="D6" s="12">
         <v>-0.1342862352042164</v>
       </c>
-      <c r="E6" s="19">
-        <v>-4.0170856100916967E-2</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="20">
+        <v>-0.04017085610091697</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
-        <v>0.32420201983606162</v>
-      </c>
-      <c r="H6" s="34">
-        <v>3.8514291454761103E-2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>-0.13363921309377039</v>
-      </c>
-      <c r="J6" s="11">
-        <v>-0.15057931392901941</v>
-      </c>
-      <c r="K6" s="11">
-        <v>-9.0614424934849905E-2</v>
-      </c>
-      <c r="L6" s="35">
-        <v>5.5278460118973978E-2</v>
+      <c r="G6" s="34">
+        <v>0.3242020198360616</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.0385142914547611</v>
+      </c>
+      <c r="I6" s="12">
+        <v>-0.1336392130937704</v>
+      </c>
+      <c r="J6" s="12">
+        <v>-0.1505793139290194</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-0.0906144249348499</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0.05527846011897398</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18">
-        <v>4.1898307385562703E-2</v>
-      </c>
-      <c r="C7" s="22">
-        <v>5.251244536401202E-2</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="B7" s="19">
+        <v>0.0418983073855627</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.05251244536401202</v>
+      </c>
+      <c r="D7" s="22">
         <v>-0.120637533798772</v>
       </c>
-      <c r="E7" s="36">
-        <v>-5.763465623360163E-2</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0.32420201983606162</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="37">
+        <v>-0.05763465623360163</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.3242020198360616</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="38">
-        <v>3.2798908865317111E-2</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="H7" s="39">
+        <v>0.03279890886531711</v>
+      </c>
+      <c r="I7" s="40">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="J7" s="40">
-        <v>-9.7565704713934692E-2</v>
-      </c>
-      <c r="K7" s="40">
-        <v>-4.0821703970321498E-2</v>
-      </c>
-      <c r="L7" s="22">
-        <v>7.891111091653219E-2</v>
+      <c r="J7" s="41">
+        <v>-0.09756570471393469</v>
+      </c>
+      <c r="K7" s="41">
+        <v>-0.0408217039703215</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.07891111091653219</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41">
-        <v>-1.669941466617118E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>-8.1787769032622873E-2</v>
-      </c>
-      <c r="D8" s="32">
-        <v>5.0883247462328481E-2</v>
-      </c>
-      <c r="E8" s="42">
-        <v>-5.8693421544935651E-3</v>
-      </c>
-      <c r="F8" s="43">
-        <v>3.8514291454761103E-2</v>
-      </c>
-      <c r="G8" s="44">
-        <v>3.2798908865317111E-2</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="B8" s="42">
+        <v>-0.01669941466617118</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-0.08178776903262287</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.05088324746232848</v>
+      </c>
+      <c r="E8" s="43">
+        <v>-0.005869342154493565</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0.0385142914547611</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.03279890886531711</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="45">
-        <v>2.7227707749374148E-3</v>
-      </c>
-      <c r="J8" s="26">
-        <v>-3.1739627346058251E-2</v>
-      </c>
-      <c r="K8" s="31">
-        <v>-3.2700945030629217E-2</v>
-      </c>
-      <c r="L8" s="35">
-        <v>5.4819297605254148E-2</v>
+      <c r="I8" s="46">
+        <v>0.002722770774937415</v>
+      </c>
+      <c r="J8" s="27">
+        <v>-0.03173962734605825</v>
+      </c>
+      <c r="K8" s="32">
+        <v>-0.03270094503062922</v>
+      </c>
+      <c r="L8" s="36">
+        <v>0.05481929760525415</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="47">
         <v>0.1843750890541429</v>
       </c>
-      <c r="C9" s="34">
-        <v>3.7021431040135659E-2</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.27652377678439899</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="C9" s="35">
+        <v>0.03702143104013566</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.276523776784399</v>
+      </c>
+      <c r="E9" s="44">
         <v>0.1117576521904835</v>
       </c>
-      <c r="F9" s="21">
-        <v>-0.13363921309377039</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="22">
+        <v>-0.1336392130937704</v>
+      </c>
+      <c r="G9" s="12">
         <v>-0.1237411223666444</v>
       </c>
-      <c r="H9" s="47">
-        <v>2.7227707749374148E-3</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="48">
+        <v>0.002722770774937415</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="48">
-        <v>0.42822576767537052</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.33421584525242692</v>
-      </c>
-      <c r="L9" s="35">
-        <v>5.5519199141542151E-2</v>
+      <c r="J9" s="49">
+        <v>0.4282257676753705</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.3342158452524269</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0.05551919914154215</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49">
-        <v>0.43001739753461249</v>
-      </c>
-      <c r="C10" s="35">
-        <v>2.393073291000429E-2</v>
-      </c>
-      <c r="D10" s="50">
-        <v>0.59029579030722457</v>
-      </c>
-      <c r="E10" s="51">
-        <v>0.19975785905124199</v>
-      </c>
-      <c r="F10" s="11">
-        <v>-0.15057931392901941</v>
-      </c>
-      <c r="G10" s="19">
-        <v>-9.7565704713934692E-2</v>
-      </c>
-      <c r="H10" s="40">
-        <v>-3.1739627346058251E-2</v>
-      </c>
-      <c r="I10" s="52">
-        <v>0.42822576767537052</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="B10" s="50">
+        <v>0.4300173975346125</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.02393073291000429</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0.5902957903072246</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.199757859051242</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-0.1505793139290194</v>
+      </c>
+      <c r="G10" s="20">
+        <v>-0.09756570471393469</v>
+      </c>
+      <c r="H10" s="41">
+        <v>-0.03173962734605825</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0.4282257676753705</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="53">
-        <v>0.70507395887158597</v>
-      </c>
-      <c r="L10" s="54">
-        <v>-1.9618020674569251E-2</v>
+      <c r="K10" s="54">
+        <v>0.705073958871586</v>
+      </c>
+      <c r="L10" s="55">
+        <v>-0.01961802067456925</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="55">
-        <v>0.33347926966632252</v>
-      </c>
-      <c r="C11" s="22">
-        <v>4.9647744309342698E-2</v>
-      </c>
-      <c r="D11" s="56">
-        <v>0.77646563569524019</v>
-      </c>
-      <c r="E11" s="57">
+      <c r="B11" s="56">
+        <v>0.3334792696663225</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.0496477443093427</v>
+      </c>
+      <c r="D11" s="57">
+        <v>0.7764656356952402</v>
+      </c>
+      <c r="E11" s="58">
         <v>0.1190140961868089</v>
       </c>
-      <c r="F11" s="31">
-        <v>-9.0614424934849905E-2</v>
-      </c>
-      <c r="G11" s="58">
-        <v>-4.0821703970321498E-2</v>
-      </c>
-      <c r="H11" s="40">
-        <v>-3.2700945030629217E-2</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0.33421584525242692</v>
-      </c>
-      <c r="J11" s="59">
-        <v>0.70507395887158597</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="F11" s="32">
+        <v>-0.0906144249348499</v>
+      </c>
+      <c r="G11" s="59">
+        <v>-0.0408217039703215</v>
+      </c>
+      <c r="H11" s="41">
+        <v>-0.03270094503062922</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.3342158452524269</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0.705073958871586</v>
+      </c>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="7">
-        <v>1.413667568644E-2</v>
+      <c r="L11" s="8">
+        <v>0.01413667568644</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
-        <v>-4.9687199530182462E-2</v>
-      </c>
-      <c r="C12" s="60">
-        <v>0.57690028450310071</v>
-      </c>
-      <c r="D12" s="61">
-        <v>5.8599653049419123E-2</v>
-      </c>
-      <c r="E12" s="62">
-        <v>5.6574932767431722E-3</v>
-      </c>
-      <c r="F12" s="63">
-        <v>5.5278460118973978E-2</v>
-      </c>
-      <c r="G12" s="64">
-        <v>7.891111091653219E-2</v>
-      </c>
-      <c r="H12" s="16">
-        <v>5.4819297605254148E-2</v>
-      </c>
-      <c r="I12" s="43">
-        <v>5.5519199141542151E-2</v>
-      </c>
-      <c r="J12" s="65">
-        <v>-1.9618020674569251E-2</v>
-      </c>
-      <c r="K12" s="20">
-        <v>1.413667568644E-2</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="B12" s="12">
+        <v>-0.04968719953018246</v>
+      </c>
+      <c r="C12" s="61">
+        <v>0.5769002845031007</v>
+      </c>
+      <c r="D12" s="62">
+        <v>0.05859965304941912</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0.005657493276743172</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0.05527846011897398</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.07891111091653219</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.05481929760525415</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0.05551919914154215</v>
+      </c>
+      <c r="J12" s="66">
+        <v>-0.01961802067456925</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.01413667568644</v>
+      </c>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
     </row>
